--- a/03_CarryTask/pf_ret_adj.xlsx
+++ b/03_CarryTask/pf_ret_adj.xlsx
@@ -458,7 +458,7 @@
         <v>36922</v>
       </c>
       <c r="B9">
-        <v>0.3678595996939536</v>
+        <v>0.3249773882382692</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -546,7 +546,7 @@
         <v>37256</v>
       </c>
       <c r="B20">
-        <v>0.3413957273756658</v>
+        <v>0.2478093508802664</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>37287</v>
       </c>
       <c r="B21">
-        <v>0.06556627079892249</v>
+        <v>0.07767155417413836</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>37315</v>
       </c>
       <c r="B22">
-        <v>0.01259940499939228</v>
+        <v>-0.01797034845142559</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>37346</v>
       </c>
       <c r="B23">
-        <v>0.2005061129106485</v>
+        <v>0.3008224167043477</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>37376</v>
       </c>
       <c r="B24">
-        <v>0.05677926364229741</v>
+        <v>0.03946449418201254</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>37407</v>
       </c>
       <c r="B25">
-        <v>-0.08347097222495105</v>
+        <v>-0.08334366269694136</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>37437</v>
       </c>
       <c r="B26">
-        <v>-0.1655786675697202</v>
+        <v>-0.2040299566422809</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>37468</v>
       </c>
       <c r="B27">
-        <v>-0.1880437241119714</v>
+        <v>-0.2482228729438101</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>37499</v>
       </c>
       <c r="B28">
-        <v>-0.02190511697397192</v>
+        <v>0.08915732368798354</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>37529</v>
       </c>
       <c r="B29">
-        <v>-0.08531951808545607</v>
+        <v>-0.0956593847751505</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>37560</v>
       </c>
       <c r="B30">
-        <v>-0.02291285695945105</v>
+        <v>-0.03163397150792442</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>37590</v>
       </c>
       <c r="B31">
-        <v>0.1128189152602452</v>
+        <v>0.1600619251665436</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>37621</v>
       </c>
       <c r="B32">
-        <v>-0.1231404887911154</v>
+        <v>-0.1206914903916048</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>37652</v>
       </c>
       <c r="B33">
-        <v>0.03712139206664577</v>
+        <v>0.04902547457600441</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>37680</v>
       </c>
       <c r="B34">
-        <v>0.02334040981542908</v>
+        <v>-0.01044462292082497</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>37711</v>
       </c>
       <c r="B35">
-        <v>0.009669330874169381</v>
+        <v>-0.0002062352891796391</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>37741</v>
       </c>
       <c r="B36">
-        <v>0.1641272105199479</v>
+        <v>0.07806216885395152</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>37772</v>
       </c>
       <c r="B37">
-        <v>0.1183822934443124</v>
+        <v>0.1767860819067834</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>37802</v>
       </c>
       <c r="B38">
-        <v>0.01597347891871059</v>
+        <v>0.0250458618668158</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>37833</v>
       </c>
       <c r="B39">
-        <v>0.0180078221306528</v>
+        <v>0.02269483944574498</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>37864</v>
       </c>
       <c r="B40">
-        <v>0.07193820223642364</v>
+        <v>0.06831472345689378</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>37894</v>
       </c>
       <c r="B41">
-        <v>-0.02072750499973791</v>
+        <v>-0.01880513665899679</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>37925</v>
       </c>
       <c r="B42">
-        <v>0.08076138073741662</v>
+        <v>0.1068609012438874</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>37955</v>
       </c>
       <c r="B43">
-        <v>0.002869605556359811</v>
+        <v>-0.008726140581306161</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>37986</v>
       </c>
       <c r="B44">
-        <v>0.06370057566383573</v>
+        <v>0.06828529698350885</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>38017</v>
       </c>
       <c r="B45">
-        <v>0.03799816844129831</v>
+        <v>0.04327089775867584</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>38046</v>
       </c>
       <c r="B46">
-        <v>0.01769813521202548</v>
+        <v>0.01315116936683065</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>38077</v>
       </c>
       <c r="B47">
-        <v>-0.003684140498930814</v>
+        <v>-0.005227013480041205</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>38107</v>
       </c>
       <c r="B48">
-        <v>0.009343851345614352</v>
+        <v>-0.002574337641030195</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>38138</v>
       </c>
       <c r="B49">
-        <v>0.0222128175921549</v>
+        <v>0.030021742880697</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>38168</v>
       </c>
       <c r="B50">
-        <v>0.05521384637058352</v>
+        <v>0.05318672572745451</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>38199</v>
       </c>
       <c r="B51">
-        <v>-0.005603811040897741</v>
+        <v>-0.008780078246532911</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>38230</v>
       </c>
       <c r="B52">
-        <v>-0.0246005583000142</v>
+        <v>-0.03399450896574571</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>38260</v>
       </c>
       <c r="B53">
-        <v>0.00538020234840072</v>
+        <v>0.007132383159320873</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>38291</v>
       </c>
       <c r="B54">
-        <v>0.02323815333364044</v>
+        <v>0.02367072073146334</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>38321</v>
       </c>
       <c r="B55">
-        <v>0.09975556453322459</v>
+        <v>0.1078566581684364</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>38352</v>
       </c>
       <c r="B56">
-        <v>0.02812888741073817</v>
+        <v>0.02613359898109845</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>38383</v>
       </c>
       <c r="B57">
-        <v>-0.02802090086422709</v>
+        <v>-0.02482798705107877</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>38411</v>
       </c>
       <c r="B58">
-        <v>0.02601964579925488</v>
+        <v>0.0308792277473421</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>38442</v>
       </c>
       <c r="B59">
-        <v>-0.03175443997295803</v>
+        <v>-0.03088017877007853</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>38472</v>
       </c>
       <c r="B60">
-        <v>-0.0190833654155839</v>
+        <v>-0.01352241948270299</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>38503</v>
       </c>
       <c r="B61">
-        <v>0.04184178705246224</v>
+        <v>0.03655519604983651</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>38533</v>
       </c>
       <c r="B62">
-        <v>0.02384724550394176</v>
+        <v>0.02941909065665567</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>38564</v>
       </c>
       <c r="B63">
-        <v>0.04233148477942861</v>
+        <v>0.0435328651427407</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>38595</v>
       </c>
       <c r="B64">
-        <v>-0.02107323575661887</v>
+        <v>-0.02343855844618247</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>38625</v>
       </c>
       <c r="B65">
-        <v>0.01079082508562052</v>
+        <v>0.01193747219334899</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>38656</v>
       </c>
       <c r="B66">
-        <v>-0.0622991026464451</v>
+        <v>-0.07179153807603032</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>38686</v>
       </c>
       <c r="B67">
-        <v>0.04138674501335686</v>
+        <v>0.04461532989368392</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>38717</v>
       </c>
       <c r="B68">
-        <v>-0.03901745770584613</v>
+        <v>-0.04398457430358695</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>38748</v>
       </c>
       <c r="B69">
-        <v>0.06099690142343793</v>
+        <v>0.07243892056583323</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>38776</v>
       </c>
       <c r="B70">
-        <v>-0.005622418604431745</v>
+        <v>-0.01410825675156371</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>38807</v>
       </c>
       <c r="B71">
-        <v>0.04427485616981033</v>
+        <v>0.0420269960523235</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>38837</v>
       </c>
       <c r="B72">
-        <v>0.03060382264038847</v>
+        <v>0.03681777550500209</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>38868</v>
       </c>
       <c r="B73">
-        <v>-0.001822658919354107</v>
+        <v>0.001038059638302981</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>38898</v>
       </c>
       <c r="B74">
-        <v>-0.002454875371683755</v>
+        <v>0.0007821038684733152</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>38929</v>
       </c>
       <c r="B75">
-        <v>-0.004819069433112185</v>
+        <v>-0.004081424847892359</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>38960</v>
       </c>
       <c r="B76">
-        <v>-0.01989320999300283</v>
+        <v>-0.01546077310740696</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>38990</v>
       </c>
       <c r="B77">
-        <v>0.03295006385906493</v>
+        <v>0.03192901978204675</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>39021</v>
       </c>
       <c r="B78">
-        <v>0.03624486084147645</v>
+        <v>0.03909155751365788</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>39051</v>
       </c>
       <c r="B79">
-        <v>0.03264892151262311</v>
+        <v>0.037208012542219</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>39082</v>
       </c>
       <c r="B80">
-        <v>0.01104754820336933</v>
+        <v>0.01665451354012038</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>39113</v>
       </c>
       <c r="B81">
-        <v>0.005976665063980377</v>
+        <v>0.004656335172397274</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>39141</v>
       </c>
       <c r="B82">
-        <v>0.04003261169868247</v>
+        <v>0.04438924583584323</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>39172</v>
       </c>
       <c r="B83">
-        <v>-0.02099447294686877</v>
+        <v>-0.01908885917759485</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>39202</v>
       </c>
       <c r="B84">
-        <v>0.04199415800362043</v>
+        <v>0.04401889689961499</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>39233</v>
       </c>
       <c r="B85">
-        <v>0.02448478758185562</v>
+        <v>0.01717259157051305</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>39263</v>
       </c>
       <c r="B86">
-        <v>-0.01251500387744491</v>
+        <v>-0.01715677760403843</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>39294</v>
       </c>
       <c r="B87">
-        <v>-0.07482373548686851</v>
+        <v>-0.08076661531030481</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>39325</v>
       </c>
       <c r="B88">
-        <v>-0.02467086961440711</v>
+        <v>-0.01811862001341747</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>39355</v>
       </c>
       <c r="B89">
-        <v>-0.02336264944218524</v>
+        <v>-0.02145646869399386</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>39386</v>
       </c>
       <c r="B90">
-        <v>-0.02246427545701179</v>
+        <v>-0.02187690301700258</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>39416</v>
       </c>
       <c r="B91">
-        <v>-0.06961901419708194</v>
+        <v>-0.06435883530353827</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>39447</v>
       </c>
       <c r="B92">
-        <v>-0.07655808965489778</v>
+        <v>-0.1337689863520448</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>39478</v>
       </c>
       <c r="B93">
-        <v>-0.06850341901717821</v>
+        <v>-0.007740616036874252</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>39507</v>
       </c>
       <c r="B94">
-        <v>-0.01632413184218803</v>
+        <v>-0.04067424595835651</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>39538</v>
       </c>
       <c r="B95">
-        <v>-0.01743576895292815</v>
+        <v>-0.04048067596227894</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>39568</v>
       </c>
       <c r="B96">
-        <v>0.01267488247190047</v>
+        <v>0.1101914916103365</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>39599</v>
       </c>
       <c r="B97">
-        <v>-0.03876698556408979</v>
+        <v>-0.07790289956015818</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>39629</v>
       </c>
       <c r="B98">
-        <v>-0.07776710551387782</v>
+        <v>-0.2148781554422975</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>39660</v>
       </c>
       <c r="B99">
-        <v>0.02790722165093555</v>
+        <v>-0.01078622503199164</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>39691</v>
       </c>
       <c r="B100">
-        <v>0.2505578371758314</v>
+        <v>0.3046143374610618</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>39721</v>
       </c>
       <c r="B101">
-        <v>-0.05903001001434875</v>
+        <v>-0.16869648522568</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>39752</v>
       </c>
       <c r="B102">
-        <v>-0.09042668894066785</v>
+        <v>-0.2864853119197178</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>39782</v>
       </c>
       <c r="B103">
-        <v>-0.1394217311100878</v>
+        <v>-0.2087055542676807</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>39813</v>
       </c>
       <c r="B104">
-        <v>-0.05550633348374296</v>
+        <v>-0.1187742214972116</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>39844</v>
       </c>
       <c r="B105">
-        <v>-0.06208208937824846</v>
+        <v>0.144732945391632</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>39872</v>
       </c>
       <c r="B106">
-        <v>-0.1025315325372169</v>
+        <v>-0.2293646577255283</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>39903</v>
       </c>
       <c r="B107">
-        <v>0.172530839209227</v>
+        <v>0.3722544361906705</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>39933</v>
       </c>
       <c r="B108">
-        <v>0.0849240183178922</v>
+        <v>0.3823672188710864</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>39964</v>
       </c>
       <c r="B109">
-        <v>0.006826217241808686</v>
+        <v>0.2472548517462883</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>39994</v>
       </c>
       <c r="B110">
-        <v>-0.0253081853254446</v>
+        <v>-0.01254900729385237</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>40025</v>
       </c>
       <c r="B111">
-        <v>-0.01931126021741876</v>
+        <v>0.10551124419957</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>40056</v>
       </c>
       <c r="B112">
-        <v>0.3237515269135646</v>
+        <v>0.4714500889180453</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>40086</v>
       </c>
       <c r="B113">
-        <v>-0.01038206936436753</v>
+        <v>0.01968574177053784</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>40117</v>
       </c>
       <c r="B114">
-        <v>-0.02603351658631464</v>
+        <v>-0.1454447813581009</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>40147</v>
       </c>
       <c r="B115">
-        <v>-0.01369958647506743</v>
+        <v>0.07321314707375368</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>40178</v>
       </c>
       <c r="B116">
-        <v>-0.0175948217129228</v>
+        <v>0.07560929485190282</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>40209</v>
       </c>
       <c r="B117">
-        <v>0.002215681557573204</v>
+        <v>0.01673703523468216</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>40237</v>
       </c>
       <c r="B118">
-        <v>-0.01068361220755914</v>
+        <v>0.04959954385040821</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>40268</v>
       </c>
       <c r="B119">
-        <v>0.09940448491932255</v>
+        <v>0.2444342430905861</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>40298</v>
       </c>
       <c r="B120">
-        <v>0.008789472855581166</v>
+        <v>0.09448272032429804</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>40329</v>
       </c>
       <c r="B121">
-        <v>-0.01215747178075619</v>
+        <v>-0.09444240356058239</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>40359</v>
       </c>
       <c r="B122">
-        <v>0.0139050932570587</v>
+        <v>-0.01748501564066764</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>40390</v>
       </c>
       <c r="B123">
-        <v>-0.00397572973755825</v>
+        <v>0.04538519598368278</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>40421</v>
       </c>
       <c r="B124">
-        <v>-0.01616203903685565</v>
+        <v>-0.06560595375983796</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>40451</v>
       </c>
       <c r="B125">
-        <v>0.01975340191654264</v>
+        <v>0.09072521157339529</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>40482</v>
       </c>
       <c r="B126">
-        <v>0.01102177368401214</v>
+        <v>0.0188458185125684</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>40512</v>
       </c>
       <c r="B127">
-        <v>-0.003691451858652179</v>
+        <v>-0.03350525641005614</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>40543</v>
       </c>
       <c r="B128">
-        <v>0.06372641764333133</v>
+        <v>0.1371215158980354</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>40574</v>
       </c>
       <c r="B129">
-        <v>-0.002161261590690239</v>
+        <v>0.06705336776604109</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>40602</v>
       </c>
       <c r="B130">
-        <v>0.005099051624076788</v>
+        <v>0.01885707190933363</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>40633</v>
       </c>
       <c r="B131">
-        <v>-0.02067938113435172</v>
+        <v>-0.02796137453396288</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>40663</v>
       </c>
       <c r="B132">
-        <v>-0.01302222514214988</v>
+        <v>0.02433799646619334</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>40694</v>
       </c>
       <c r="B133">
-        <v>-0.01930637056542351</v>
+        <v>-0.05538813119177906</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>40724</v>
       </c>
       <c r="B134">
-        <v>-0.004896621192263691</v>
+        <v>-0.03977908348459164</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>40755</v>
       </c>
       <c r="B135">
-        <v>-0.005653626890792134</v>
+        <v>-0.03365618491716222</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>40786</v>
       </c>
       <c r="B136">
-        <v>-0.05301932052178403</v>
+        <v>-0.1742000173613205</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>40816</v>
       </c>
       <c r="B137">
-        <v>-0.02691690669602994</v>
+        <v>-0.09701691750682054</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>40847</v>
       </c>
       <c r="B138">
-        <v>0.05893554204065346</v>
+        <v>0.206036891104373</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>40877</v>
       </c>
       <c r="B139">
-        <v>-0.00919751788972336</v>
+        <v>-0.13500537089998</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>40908</v>
       </c>
       <c r="B140">
-        <v>0.05975316189920367</v>
+        <v>0.09762154493418014</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>40939</v>
       </c>
       <c r="B141">
-        <v>0.0702551644824729</v>
+        <v>0.1472872706928088</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>40968</v>
       </c>
       <c r="B142">
-        <v>0.05824317437180583</v>
+        <v>0.07087644251708901</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>40999</v>
       </c>
       <c r="B143">
-        <v>0.05016742199857338</v>
+        <v>0.07382924787288321</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>41029</v>
       </c>
       <c r="B144">
-        <v>-0.01099771677099142</v>
+        <v>-0.03317280626883778</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>41060</v>
       </c>
       <c r="B145">
-        <v>-0.06911976620734576</v>
+        <v>-0.1326924539733918</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>41090</v>
       </c>
       <c r="B146">
-        <v>0.04098296217277488</v>
+        <v>0.0637829987686088</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>41121</v>
       </c>
       <c r="B147">
-        <v>-0.0350192007395068</v>
+        <v>-0.04823568371984405</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>41152</v>
       </c>
       <c r="B148">
-        <v>0.04169130152078822</v>
+        <v>0.06887911716900388</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>41182</v>
       </c>
       <c r="B149">
-        <v>0.03639016296299283</v>
+        <v>0.07382881956139756</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>41213</v>
       </c>
       <c r="B150">
-        <v>0.04949390334431245</v>
+        <v>0.05673136053017518</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>41243</v>
       </c>
       <c r="B151">
-        <v>0.006439180372596252</v>
+        <v>-0.00270703078383632</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>41274</v>
       </c>
       <c r="B152">
-        <v>0.02700277155465038</v>
+        <v>0.01711113202145167</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>41305</v>
       </c>
       <c r="B153">
-        <v>0.0866144766399134</v>
+        <v>0.1255070738306046</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>41333</v>
       </c>
       <c r="B154">
-        <v>0.02324226106549899</v>
+        <v>0.04600070098654423</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>41364</v>
       </c>
       <c r="B155">
-        <v>0.03596483073044192</v>
+        <v>0.04313831542124651</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>41394</v>
       </c>
       <c r="B156">
-        <v>-0.01144696596370659</v>
+        <v>-0.011379648236882</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>41425</v>
       </c>
       <c r="B157">
-        <v>0.06116170441738789</v>
+        <v>0.1159427631461675</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>41455</v>
       </c>
       <c r="B158">
-        <v>-0.007626497340690807</v>
+        <v>-0.01853877516188639</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>41486</v>
       </c>
       <c r="B159">
-        <v>0.01194937652577838</v>
+        <v>0.02722232747555394</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>41517</v>
       </c>
       <c r="B160">
-        <v>-0.007127468281314353</v>
+        <v>-0.02103690626591828</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>41547</v>
       </c>
       <c r="B161">
-        <v>0.006150489925951685</v>
+        <v>0.01003609854474105</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>41578</v>
       </c>
       <c r="B162">
-        <v>0.01612703956153403</v>
+        <v>0.03436818338801076</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>41608</v>
       </c>
       <c r="B163">
-        <v>0.04553118576229349</v>
+        <v>0.07931582805644412</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>41639</v>
       </c>
       <c r="B164">
-        <v>-0.01260349357734568</v>
+        <v>0.003207832835362293</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>41670</v>
       </c>
       <c r="B165">
-        <v>-0.009517430835836746</v>
+        <v>-0.01532600630844571</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>41698</v>
       </c>
       <c r="B166">
-        <v>0.03171009686805689</v>
+        <v>0.03622110551233413</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>41729</v>
       </c>
       <c r="B167">
-        <v>0.001171980275858409</v>
+        <v>0.007973445318845652</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>41759</v>
       </c>
       <c r="B168">
-        <v>0.001475244345681579</v>
+        <v>0.009392148328425481</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>41790</v>
       </c>
       <c r="B169">
-        <v>0.005438428081930048</v>
+        <v>0.007257933554496382</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>41820</v>
       </c>
       <c r="B170">
-        <v>-0.01201821003927929</v>
+        <v>-0.0006896107535232213</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>41851</v>
       </c>
       <c r="B171">
-        <v>-0.02319721346071616</v>
+        <v>0.0006421062766875659</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>41882</v>
       </c>
       <c r="B172">
-        <v>0.01553786120456575</v>
+        <v>0.02730521197108306</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>41912</v>
       </c>
       <c r="B173">
-        <v>-0.01419375364727411</v>
+        <v>-0.01361595036575551</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>41943</v>
       </c>
       <c r="B174">
-        <v>0.02595491126225914</v>
+        <v>0.03275776402205444</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>41973</v>
       </c>
       <c r="B175">
-        <v>0.005954316032218508</v>
+        <v>0.01434505440535298</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>42004</v>
       </c>
       <c r="B176">
-        <v>-0.02475937933540467</v>
+        <v>-0.0225919248888374</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>42035</v>
       </c>
       <c r="B177">
-        <v>-0.04581264976418548</v>
+        <v>-0.1060855110763655</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>42063</v>
       </c>
       <c r="B178">
-        <v>0.02471246517150122</v>
+        <v>0.05801888344241334</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>42094</v>
       </c>
       <c r="B179">
-        <v>0.03398725471718807</v>
+        <v>-0.002696178874722066</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>42124</v>
       </c>
       <c r="B180">
-        <v>0.03954482471418318</v>
+        <v>0.07610773703697131</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>42155</v>
       </c>
       <c r="B181">
-        <v>0.02236815664958074</v>
+        <v>0.05026367096590003</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>42185</v>
       </c>
       <c r="B182">
-        <v>0.001203877995308699</v>
+        <v>-0.003533461672102246</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>42216</v>
       </c>
       <c r="B183">
-        <v>-0.06669774660045014</v>
+        <v>-0.1019411874237921</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>42247</v>
       </c>
       <c r="B184">
-        <v>0.02278675283206558</v>
+        <v>0.010739526442361</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>42277</v>
       </c>
       <c r="B185">
-        <v>-0.01144827141030441</v>
+        <v>-0.04021487853151083</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>42308</v>
       </c>
       <c r="B186">
-        <v>0.007230296392962075</v>
+        <v>0.07050451889606417</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>42338</v>
       </c>
       <c r="B187">
-        <v>-0.02231508917550227</v>
+        <v>-0.02487345837027538</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>42369</v>
       </c>
       <c r="B188">
-        <v>-0.0197513637706708</v>
+        <v>-0.05289366334950075</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>42400</v>
       </c>
       <c r="B189">
-        <v>-0.0384952608293873</v>
+        <v>-0.1330151428378046</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>42429</v>
       </c>
       <c r="B190">
-        <v>-0.008474813797625482</v>
+        <v>0.03917742205104378</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>42460</v>
       </c>
       <c r="B191">
-        <v>0.06997985200239222</v>
+        <v>0.2442477016060214</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>42490</v>
       </c>
       <c r="B192">
-        <v>0.03460521960866941</v>
+        <v>0.1077853365606506</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>42521</v>
       </c>
       <c r="B193">
-        <v>-0.03734428145213867</v>
+        <v>-0.090316612447674</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>42551</v>
       </c>
       <c r="B194">
-        <v>0.01647187348306287</v>
+        <v>0.04266809623890527</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>42582</v>
       </c>
       <c r="B195">
-        <v>0.009877430804827687</v>
+        <v>0.1262190532275487</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>42613</v>
       </c>
       <c r="B196">
-        <v>-0.008758319067989588</v>
+        <v>-0.02529055078718984</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>42643</v>
       </c>
       <c r="B197">
-        <v>0.02083214783097953</v>
+        <v>0.01936722404605148</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>42674</v>
       </c>
       <c r="B198">
-        <v>-0.007637166601968245</v>
+        <v>-0.03607238016873425</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>42704</v>
       </c>
       <c r="B199">
-        <v>0.09071716669925636</v>
+        <v>0.2335214793303124</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>42735</v>
       </c>
       <c r="B200">
-        <v>0.04646769748941435</v>
+        <v>0.04896596723895903</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>42766</v>
       </c>
       <c r="B201">
-        <v>-0.01843412321740723</v>
+        <v>-0.01728705466203657</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>42794</v>
       </c>
       <c r="B202">
-        <v>-0.02648134309461395</v>
+        <v>-0.01840778341043827</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>42825</v>
       </c>
       <c r="B203">
-        <v>-0.03325309767139706</v>
+        <v>-0.0175204392600986</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>42855</v>
       </c>
       <c r="B204">
-        <v>-0.0007359472412288628</v>
+        <v>0.001704611250318231</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>42886</v>
       </c>
       <c r="B205">
-        <v>-0.05052844744911644</v>
+        <v>-0.04205283769598823</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>42916</v>
       </c>
       <c r="B206">
-        <v>-0.008289402049046189</v>
+        <v>0.0118569515375824</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>42947</v>
       </c>
       <c r="B207">
-        <v>0.02351765521097542</v>
+        <v>0.02045634150925833</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>42978</v>
       </c>
       <c r="B208">
-        <v>-0.02072722646033827</v>
+        <v>-0.02484114460201002</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>43008</v>
       </c>
       <c r="B209">
-        <v>0.07308113144099894</v>
+        <v>0.09019377567409052</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>43039</v>
       </c>
       <c r="B210">
-        <v>0.09109430831660707</v>
+        <v>0.1047989812164528</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>43069</v>
       </c>
       <c r="B211">
-        <v>0.0343227661252262</v>
+        <v>0.03938738321836739</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>43100</v>
       </c>
       <c r="B212">
-        <v>-0.0001906060938748956</v>
+        <v>0.02031241783767384</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>43131</v>
       </c>
       <c r="B213">
-        <v>0.0298098870975403</v>
+        <v>0.0390298649344953</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>43159</v>
       </c>
       <c r="B214">
-        <v>-0.009186756604727434</v>
+        <v>-0.009241602458442766</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>43190</v>
       </c>
       <c r="B215">
-        <v>-0.0293259118381072</v>
+        <v>-0.0391185548314048</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>43220</v>
       </c>
       <c r="B216">
-        <v>0.5025200983078911</v>
+        <v>0.06556005369662317</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>43251</v>
       </c>
       <c r="B217">
-        <v>0.001565179043625558</v>
+        <v>-0.001524970192390449</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>43281</v>
       </c>
       <c r="B218">
-        <v>0.001210773298246965</v>
+        <v>0.003736733380056172</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>43312</v>
       </c>
       <c r="B219">
-        <v>-0.006587124605305471</v>
+        <v>-0.00803716573966533</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>43343</v>
       </c>
       <c r="B220">
-        <v>-0.03029371597672283</v>
+        <v>-0.0140366390355572</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>43373</v>
       </c>
       <c r="B221">
-        <v>0.0362100062048871</v>
+        <v>0.03545995596695338</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>43404</v>
       </c>
       <c r="B222">
-        <v>-0.09611771582985836</v>
+        <v>-0.1047321819778548</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>43434</v>
       </c>
       <c r="B223">
-        <v>-0.007810524239701488</v>
+        <v>-0.01075763411886621</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>43465</v>
       </c>
       <c r="B224">
-        <v>-0.1657909385585727</v>
+        <v>-0.1916597439126657</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>43496</v>
       </c>
       <c r="B225">
-        <v>0.2008012119560042</v>
+        <v>0.2311950976474292</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>43524</v>
       </c>
       <c r="B226">
-        <v>-0.04368565013564551</v>
+        <v>-0.03744377981777047</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>43555</v>
       </c>
       <c r="B227">
-        <v>0.009559986171185407</v>
+        <v>0.002039260706548119</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>43585</v>
       </c>
       <c r="B228">
-        <v>-0.02989809386802989</v>
+        <v>-0.01734984184432379</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>43616</v>
       </c>
       <c r="B229">
-        <v>-0.1126993648490173</v>
+        <v>-0.1308564131814016</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>43646</v>
       </c>
       <c r="B230">
-        <v>0.07509873117860821</v>
+        <v>0.09274218645410297</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>43677</v>
       </c>
       <c r="B231">
-        <v>-0.07064842640647673</v>
+        <v>-0.06546643167190877</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>43708</v>
       </c>
       <c r="B232">
-        <v>-0.04096261159891715</v>
+        <v>-0.05715119098974199</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>43738</v>
       </c>
       <c r="B233">
-        <v>0.04863354904366639</v>
+        <v>0.05958228029975896</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>43769</v>
       </c>
       <c r="B234">
-        <v>0.07458126979185475</v>
+        <v>0.08154954361845922</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>43799</v>
       </c>
       <c r="B235">
-        <v>0.03227661485748749</v>
+        <v>0.03398898489419942</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>43830</v>
       </c>
       <c r="B236">
-        <v>0.01498292152344976</v>
+        <v>0.005633596691723539</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>43861</v>
       </c>
       <c r="B237">
-        <v>-0.0727325887802652</v>
+        <v>-0.1003567920282917</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>43890</v>
       </c>
       <c r="B238">
-        <v>-0.05825275998659225</v>
+        <v>-0.0911270379127411</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>43921</v>
       </c>
       <c r="B239">
-        <v>-0.1677981081814329</v>
+        <v>-0.24836295683529</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>43951</v>
       </c>
       <c r="B240">
-        <v>-0.05388113315936833</v>
+        <v>-0.03834518846216705</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>43982</v>
       </c>
       <c r="B241">
-        <v>0.03470736403507969</v>
+        <v>0.08265359746860014</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>44012</v>
       </c>
       <c r="B242">
-        <v>0.02139538897581422</v>
+        <v>0.01538904680795155</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>44043</v>
       </c>
       <c r="B243">
-        <v>0.001238507397667579</v>
+        <v>0.03427515607906095</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>44074</v>
       </c>
       <c r="B244">
-        <v>-0.00554165387730895</v>
+        <v>-0.01243170008688094</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>44104</v>
       </c>
       <c r="B245">
-        <v>-0.05916636557005246</v>
+        <v>-0.09103602082187666</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>44135</v>
       </c>
       <c r="B246">
-        <v>0.04093965551816215</v>
+        <v>0.05780984330954406</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>44165</v>
       </c>
       <c r="B247">
-        <v>0.300351291716875</v>
+        <v>0.3574585549991575</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>44196</v>
       </c>
       <c r="B248">
-        <v>0.002435322738698216</v>
+        <v>-0.002100568447642792</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>44227</v>
       </c>
       <c r="B249">
-        <v>0.05025568543822014</v>
+        <v>0.04808812444363723</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>44255</v>
       </c>
       <c r="B250">
-        <v>0.05955117985311285</v>
+        <v>0.1168050572325318</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>44286</v>
       </c>
       <c r="B251">
-        <v>0.01489293495671211</v>
+        <v>0.01757583796294761</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44316</v>
       </c>
       <c r="B252">
-        <v>0.001394668447846849</v>
+        <v>-0.00172343688879644</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>44347</v>
       </c>
       <c r="B253">
-        <v>0.04287240487204332</v>
+        <v>0.06295702448958208</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>44377</v>
       </c>
       <c r="B254">
-        <v>-0.0003392630511883686</v>
+        <v>0.01610167899199669</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>44408</v>
       </c>
       <c r="B255">
-        <v>-0.03299683603548493</v>
+        <v>-0.05558844905079389</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>44439</v>
       </c>
       <c r="B256">
-        <v>0.01779153117920725</v>
+        <v>0.0371471264567029</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>44469</v>
       </c>
       <c r="B257">
-        <v>-0.02241156340198044</v>
+        <v>-0.007108989305583673</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44500</v>
       </c>
       <c r="B258">
-        <v>0.01413706282249844</v>
+        <v>0.06179032846520354</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>44530</v>
       </c>
       <c r="B259">
-        <v>-0.03077585997716899</v>
+        <v>-0.03474435634691851</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>44561</v>
       </c>
       <c r="B260">
-        <v>-0.01659602991019045</v>
+        <v>0.00190708986521694</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44592</v>
       </c>
       <c r="B261">
-        <v>0.02732295595472148</v>
+        <v>0.02622096140602395</v>
       </c>
     </row>
     <row r="262" spans="1:2">
